--- a/nanni_chip_rna_2022/documentation/fb_features.xlsx
+++ b/nanni_chip_rna_2022/documentation/fb_features.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SHARE\McIntyre_Lab\useful_dmel_data\flybase617\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ufgi$/SHARE/McIntyre_Lab/Dros_CHIP_RNA_ms/documentation/github_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB608C8-37FA-4C95-AB2F-C3928E689EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6E6084-48B3-C641-9165-1EADCBA252B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall Annotation Pipeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Generate Unique Features" sheetId="2" r:id="rId2"/>
+    <sheet name="Unique features" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Drosophila Annotation</t>
-  </si>
-  <si>
-    <t>Analysis</t>
   </si>
   <si>
     <t>Define HPC Variables</t>
@@ -300,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -385,33 +381,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -552,97 +521,61 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,839 +977,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EB053-9B8B-4B6E-8155-ACDDF06972E4}">
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="24.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="30.5546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="35" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30" style="2" customWidth="1"/>
-    <col min="9" max="64" width="11.5546875" style="3"/>
-    <col min="1024" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="18"/>
+    <col min="2" max="2" width="24.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="30.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="35" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="1023" width="11.5" style="10"/>
+    <col min="1024" max="1025" width="8.6640625" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="11.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:64" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:64" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-    </row>
-    <row r="4" spans="1:64" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:64" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:64" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="10" spans="1:64" customFormat="1" ht="126" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:64" ht="132" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+    </row>
+    <row r="11" spans="1:64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+    </row>
+    <row r="12" spans="1:64" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:64" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+    </row>
+    <row r="14" spans="1:64" s="19" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:64" ht="112" x14ac:dyDescent="0.15">
+      <c r="A16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="140" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="126" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="140" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="9"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
-      <c r="BL13" s="9"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843EB053-9B8B-4B6E-8155-ACDDF06972E4}">
-  <dimension ref="A1:U35"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" style="30"/>
-    <col min="2" max="2" width="24.77734375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="30.5546875" style="17" customWidth="1"/>
-    <col min="6" max="7" width="35" style="17" customWidth="1"/>
-    <col min="8" max="8" width="30" style="17" customWidth="1"/>
-    <col min="9" max="1023" width="11.5546875" style="22"/>
-    <col min="1024" max="1025" width="8.6640625" style="22" customWidth="1"/>
-    <col min="1026" max="16384" width="11.5546875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="10" spans="1:21" s="31" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:21" ht="132" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="14" spans="1:21" ht="132" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="132" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="22" spans="1:10" s="24" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="F30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="G30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="19"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
